--- a/Descargas/CargaVery.xlsx
+++ b/Descargas/CargaVery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB47DA8-16D1-4707-B81D-B46D9DD9C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1EF9C4-225F-4D2C-B18F-9C0A2C13E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{97E63BC1-27BF-492B-805A-727B7C22987F}"/>
+    <workbookView xWindow="3120" yWindow="1770" windowWidth="20475" windowHeight="11820" xr2:uid="{97E63BC1-27BF-492B-805A-727B7C22987F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>K000001</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Ejemplo asegurado</t>
   </si>
   <si>
-    <t>Eje Ciudad</t>
-  </si>
-  <si>
     <t>Eje Colonia</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Asegurado</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Colonia</t>
   </si>
   <si>
@@ -100,6 +94,27 @@
   </si>
   <si>
     <t>Fecha Asignación</t>
+  </si>
+  <si>
+    <t>K000002</t>
+  </si>
+  <si>
+    <t>Del/Mun</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>eje cp</t>
+  </si>
+  <si>
+    <t>eje del</t>
+  </si>
+  <si>
+    <t>eje estado</t>
   </si>
 </sst>
 </file>
@@ -508,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEBEB72-06FE-4390-B810-E3C63D49B104}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,54 +535,59 @@
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>20</v>
+      <c r="N1" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>44585</v>
+        <v>44220</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -589,26 +609,78 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4">
+        <v>5500000044</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
-        <v>5500000044</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44585</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5500000044</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{E1372E90-171C-4FFE-9DF6-23AB1F31DF9C}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{E1372E90-171C-4FFE-9DF6-23AB1F31DF9C}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{B3E49E93-28C3-4DD6-B401-234A528D03E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>